--- a/Storage.xlsx
+++ b/Storage.xlsx
@@ -28,7 +28,7 @@
     <t>Adj</t>
   </si>
   <si>
-    <t>Recieve</t>
+    <t>Receive</t>
   </si>
   <si>
     <t>Ship</t>
@@ -153,6 +153,247 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Monthly Total</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:showVal val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>StorageByUnit!$B$4:$B$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>202106</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>202107</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>202108</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>202109</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>202110</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>202111</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>202112</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>202201</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>202202</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>202203</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>202204</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>202205</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>202206</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>202207</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>202208</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>StorageByUnit!$F$4:$F$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>15020</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>943423</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>907315</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1179107</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>915632</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>531768</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>164913</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>262182</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>194642</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>153632</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>153528</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>609708</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1187061</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1606180</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1689309</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="50010001"/>
+        <c:axId val="50010002"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="50010001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Date</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50010002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50010002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Units</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50010001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -743,5 +984,6 @@
     <mergeCell ref="A4:A18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>